--- a/biology/Médecine/Lymphangite/Lymphangite.xlsx
+++ b/biology/Médecine/Lymphangite/Lymphangite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La lymphangite est une inflammation des vaisseaux lymphatiques[1]. Les causes principales sont :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La lymphangite est une inflammation des vaisseaux lymphatiques. Les causes principales sont :
 infection (streptocoque, staphylocoque…)
 compression des vaisseaux lymphatiques (tumeur bénigne ou maligne, envahissement par lymphangite carcinomateuse)
 Elle se traduit par un gonflement, plus ou moins douloureux du vaisseau lymphatique impliqué, une rougeur locale avec œdème.
@@ -515,7 +527,9 @@
           <t>Lymphangite réticulaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Due à la remontée de bactéries le long des vaisseaux lymphatiques, elle tend à décrire un cordon rouge, douloureux et induré. On ne retrouve pas de signes généraux (fièvre, altération de l'état général (AEG), etc.) dans ce type d'atteinte.
 Diagnostic différentiel : veinite et phlébite.
@@ -548,7 +562,9 @@
           <t>Lymphangite tronculaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lymphangite réticulaire associée à des signes généraux :
 Fièvre (en plateau à 40 °C)
